--- a/Code/Results/Cases/Case_2_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_112/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.2543368571562</v>
+        <v>8.458702551532514</v>
       </c>
       <c r="C2">
-        <v>7.574886496507832</v>
+        <v>6.6092802915852</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.61573370965826</v>
+        <v>16.53154759281661</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>16.40612108222622</v>
+        <v>21.59341235664857</v>
       </c>
       <c r="H2">
-        <v>7.412700323892242</v>
+        <v>12.55754310208166</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.9000017091329</v>
+        <v>8.606658067835472</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.2766062042882</v>
+        <v>17.01278109724849</v>
       </c>
       <c r="O2">
-        <v>11.40617548993188</v>
+        <v>18.1438398480341</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.42184224081801</v>
+        <v>8.115647334979764</v>
       </c>
       <c r="C3">
-        <v>7.29525311935642</v>
+        <v>6.504870617224146</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.49436763724115</v>
+        <v>15.59355093206447</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>16.18264174055523</v>
+        <v>21.67150609310042</v>
       </c>
       <c r="H3">
-        <v>7.501087794782338</v>
+        <v>12.60603450561432</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.27080231882227</v>
+        <v>8.318092797627614</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.43589109060054</v>
+        <v>17.06341470440659</v>
       </c>
       <c r="O3">
-        <v>11.4798744984303</v>
+        <v>18.22440881970333</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.88173487214005</v>
+        <v>7.898445033565831</v>
       </c>
       <c r="C4">
-        <v>7.118117277963972</v>
+        <v>6.43946914583015</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.12657482355448</v>
+        <v>14.99236570412395</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>16.07251815830185</v>
+        <v>21.72802924302474</v>
       </c>
       <c r="H4">
-        <v>7.560300237579409</v>
+        <v>12.63783454778404</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.86581574501942</v>
+        <v>8.134088273594539</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.53645079236616</v>
+        <v>17.09612299366481</v>
       </c>
       <c r="O4">
-        <v>11.53756018864374</v>
+        <v>18.27807516096775</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.65435758324994</v>
+        <v>7.808414423413815</v>
       </c>
       <c r="C5">
-        <v>7.044629869782932</v>
+        <v>6.412512703949927</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.55252136660009</v>
+        <v>14.74129623204272</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>16.03421075844752</v>
+        <v>21.75320349798038</v>
       </c>
       <c r="H5">
-        <v>7.585623323895298</v>
+        <v>12.65130285277915</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.69616567794504</v>
+        <v>8.057456980420845</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.57813307845925</v>
+        <v>17.1098600662367</v>
       </c>
       <c r="O5">
-        <v>11.5640272911534</v>
+        <v>18.30099725310113</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.61616236713238</v>
+        <v>7.793377335302663</v>
       </c>
       <c r="C6">
-        <v>7.032350704136468</v>
+        <v>6.408018807022661</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.45618636291089</v>
+        <v>14.69924790250193</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>16.02823884470141</v>
+        <v>21.75751249130493</v>
       </c>
       <c r="H6">
-        <v>7.589898922466229</v>
+        <v>12.65357003054764</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.66771932090616</v>
+        <v>8.044635012601892</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.58509715903688</v>
+        <v>17.11216578088592</v>
       </c>
       <c r="O6">
-        <v>11.56859612674425</v>
+        <v>18.30486694713226</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.8786978461317</v>
+        <v>7.897236813418629</v>
       </c>
       <c r="C7">
-        <v>7.117131385234559</v>
+        <v>6.439106808516519</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.11890075018043</v>
+        <v>14.98900392459326</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>16.07197527974552</v>
+        <v>21.72836010531663</v>
       </c>
       <c r="H7">
-        <v>7.560636983267247</v>
+        <v>12.63801412293196</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.86354635435841</v>
+        <v>8.133061374395504</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.53701007329195</v>
+        <v>17.09630660253028</v>
       </c>
       <c r="O7">
-        <v>11.53790536569802</v>
+        <v>18.27838003783309</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.97329907630764</v>
+        <v>8.341854027693083</v>
       </c>
       <c r="C8">
-        <v>7.479634039613031</v>
+        <v>6.573560375829725</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.89767477803173</v>
+        <v>16.2135124984723</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>16.32330537055273</v>
+        <v>21.61855079467341</v>
       </c>
       <c r="H8">
-        <v>7.442119772795769</v>
+        <v>12.57384244048867</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.68696551520739</v>
+        <v>8.508615742638394</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.33096115726008</v>
+        <v>17.02990416701719</v>
       </c>
       <c r="O8">
-        <v>11.42890395234294</v>
+        <v>18.17074741004442</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.890583581887</v>
+        <v>9.156630448544028</v>
       </c>
       <c r="C9">
-        <v>8.144950603570225</v>
+        <v>6.826096337704097</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.84122533857899</v>
+        <v>18.50122265353804</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>17.04029636164775</v>
+        <v>21.4718802598642</v>
       </c>
       <c r="H9">
-        <v>7.251337552001131</v>
+        <v>12.46407639511772</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.15126570765163</v>
+        <v>9.188300156732025</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.94832835054415</v>
+        <v>16.91248731250109</v>
       </c>
       <c r="O9">
-        <v>11.32156612100875</v>
+        <v>17.99309801832483</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.16080308305141</v>
+        <v>9.714686021141297</v>
       </c>
       <c r="C10">
-        <v>8.60341667337835</v>
+        <v>7.003748045112257</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.18326175968514</v>
+        <v>20.14047895013242</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>17.71374383283299</v>
+        <v>21.40679416864066</v>
       </c>
       <c r="H10">
-        <v>7.140214909016755</v>
+        <v>12.39322806181529</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.13332960614431</v>
+        <v>9.650002450673695</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.67962231421084</v>
+        <v>16.83395541908365</v>
       </c>
       <c r="O10">
-        <v>11.31855202228678</v>
+        <v>17.88311470592888</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.70903782286054</v>
+        <v>9.958793733714884</v>
       </c>
       <c r="C11">
-        <v>8.805019317191825</v>
+        <v>7.082636250082874</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.64508869222562</v>
+        <v>20.84377544918225</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>18.05345487593164</v>
+        <v>21.38660309402866</v>
       </c>
       <c r="H11">
-        <v>7.096873389073824</v>
+        <v>12.3631244681813</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.55957903365587</v>
+        <v>9.851342237259935</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.55993395845101</v>
+        <v>16.799894366046</v>
       </c>
       <c r="O11">
-        <v>11.33608936845268</v>
+        <v>17.83757480582566</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.91242675162268</v>
+        <v>10.04976304100815</v>
       </c>
       <c r="C12">
-        <v>8.88033930040852</v>
+        <v>7.112215033205353</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.19063682044965</v>
+        <v>21.10403266994742</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>18.18697690934194</v>
+        <v>21.38032210572398</v>
       </c>
       <c r="H12">
-        <v>7.081581144957279</v>
+        <v>12.35203077960139</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.71804191497451</v>
+        <v>9.926298081115123</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.51496594576019</v>
+        <v>16.78723449373529</v>
       </c>
       <c r="O12">
-        <v>11.34565371513905</v>
+        <v>17.82097895446393</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.86881010260184</v>
+        <v>10.03023746027107</v>
       </c>
       <c r="C13">
-        <v>8.864163550067593</v>
+        <v>7.105858077661827</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.07349299396129</v>
+        <v>21.04825088802091</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>18.15800233072886</v>
+        <v>21.38161396461485</v>
       </c>
       <c r="H13">
-        <v>7.084823373071965</v>
+        <v>12.35440639569364</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.68404514788855</v>
+        <v>9.910212790471322</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.52463498231998</v>
+        <v>16.78995043903885</v>
       </c>
       <c r="O13">
-        <v>11.343460577394</v>
+        <v>17.82452424777498</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.72585499154005</v>
+        <v>9.966307619575282</v>
       </c>
       <c r="C14">
-        <v>8.811236532841606</v>
+        <v>7.085075712638438</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.69012947860939</v>
+        <v>20.86530835161275</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>18.06434157945034</v>
+        <v>21.38605894066687</v>
       </c>
       <c r="H14">
-        <v>7.095592331396465</v>
+        <v>12.36220565193699</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.5726749345288</v>
+        <v>9.857534893456286</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.55622735396965</v>
+        <v>16.79884805975729</v>
       </c>
       <c r="O14">
-        <v>11.33681646950486</v>
+        <v>17.83619642767401</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.63774313718796</v>
+        <v>9.926955638303303</v>
       </c>
       <c r="C15">
-        <v>8.778683502248343</v>
+        <v>7.072307063321194</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.45427696998373</v>
+        <v>20.7524617675766</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>18.00760946618283</v>
+        <v>21.38895967049233</v>
       </c>
       <c r="H15">
-        <v>7.102337120904929</v>
+        <v>12.36702276426414</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.50407361316207</v>
+        <v>9.825099506122539</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.57562454665263</v>
+        <v>16.80432911782637</v>
       </c>
       <c r="O15">
-        <v>11.33313355588189</v>
+        <v>17.84343060349211</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.12438242446685</v>
+        <v>9.698530830907712</v>
       </c>
       <c r="C16">
-        <v>8.590099419871343</v>
+        <v>6.998552238146677</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.0865841167354</v>
+        <v>20.09366626968082</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>17.69222179089088</v>
+        <v>21.40830414610026</v>
       </c>
       <c r="H16">
-        <v>7.143199428945665</v>
+        <v>12.39523819470094</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.10506043411309</v>
+        <v>9.636666227664509</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.68749455734634</v>
+        <v>16.83621478556349</v>
       </c>
       <c r="O16">
-        <v>11.31780383002487</v>
+        <v>17.88618150807148</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.80189903191209</v>
+        <v>9.555850919541548</v>
       </c>
       <c r="C17">
-        <v>8.472609393810492</v>
+        <v>6.952799930855394</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.23284042346749</v>
+        <v>19.67867771883401</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>17.50735156720686</v>
+        <v>21.42259132289174</v>
       </c>
       <c r="H17">
-        <v>7.170170790202173</v>
+        <v>12.41309203223089</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.85502510226014</v>
+        <v>9.518814363279912</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.75676788778913</v>
+        <v>16.85620102657693</v>
       </c>
       <c r="O17">
-        <v>11.31338725803412</v>
+        <v>17.9135605822309</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.61362678072439</v>
+        <v>9.472870361806093</v>
       </c>
       <c r="C18">
-        <v>8.404378375049031</v>
+        <v>6.926304073873046</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.73625929848553</v>
+        <v>19.43599357666292</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>17.40415525596062</v>
+        <v>21.43169472439938</v>
       </c>
       <c r="H18">
-        <v>7.186357103061762</v>
+        <v>12.42356115077021</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.70928157425829</v>
+        <v>9.450212966992478</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.79685250835421</v>
+        <v>16.86785321293917</v>
       </c>
       <c r="O18">
-        <v>11.3126143504421</v>
+        <v>17.9297309260269</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.54940100771527</v>
+        <v>9.444619626274775</v>
       </c>
       <c r="C19">
-        <v>8.381165024134226</v>
+        <v>6.91730260487213</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.56716415103408</v>
+        <v>19.35313797865465</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>17.36975049283746</v>
+        <v>21.43492876692924</v>
       </c>
       <c r="H19">
-        <v>7.191950680328689</v>
+        <v>12.42714016915723</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.65960407303325</v>
+        <v>9.426846764603905</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.81046609781913</v>
+        <v>16.87182537193694</v>
       </c>
       <c r="O19">
-        <v>11.31265001062495</v>
+        <v>17.93527841624046</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.83651624980202</v>
+        <v>9.571134633908732</v>
       </c>
       <c r="C20">
-        <v>8.485184265122905</v>
+        <v>6.957689135859781</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.32429251492076</v>
+        <v>19.72326705547632</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>17.52670606527597</v>
+        <v>21.42097866988018</v>
       </c>
       <c r="H20">
-        <v>7.16722939578459</v>
+        <v>12.41117075338955</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.88184155929427</v>
+        <v>9.531444647487517</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.74936881840282</v>
+        <v>16.85405725313009</v>
       </c>
       <c r="O20">
-        <v>11.31367301688534</v>
+        <v>17.91060227001558</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.76795843818212</v>
+        <v>9.98512571196248</v>
       </c>
       <c r="C21">
-        <v>8.826810374125134</v>
+        <v>7.09118812331372</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.80294679529871</v>
+        <v>20.91920737792269</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>18.09171897039938</v>
+        <v>21.38471621973124</v>
       </c>
       <c r="H21">
-        <v>7.092398122610463</v>
+        <v>12.35990651771918</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.60546704806856</v>
+        <v>9.873042876212892</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.54693835180678</v>
+        <v>16.79622815231721</v>
       </c>
       <c r="O21">
-        <v>11.33868703101034</v>
+        <v>17.83275038332618</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.3521601565575</v>
+        <v>10.2471062527657</v>
       </c>
       <c r="C22">
-        <v>9.044117329536126</v>
+        <v>7.176713598191527</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.37639037326527</v>
+        <v>21.6654817288934</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>18.48946405702494</v>
+        <v>21.36897660078095</v>
       </c>
       <c r="H22">
-        <v>7.050065121363208</v>
+        <v>12.32818544873265</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.06121819609501</v>
+        <v>10.0887804582766</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.41670453856932</v>
+        <v>16.75982213451941</v>
       </c>
       <c r="O22">
-        <v>11.37217015836488</v>
+        <v>17.78565471249262</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.04259231887331</v>
+        <v>10.10808744309288</v>
       </c>
       <c r="C23">
-        <v>8.928687830628428</v>
+        <v>7.131230300652769</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.5407279823714</v>
+        <v>21.27040415540426</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>18.27455113188267</v>
+        <v>21.37664555237615</v>
       </c>
       <c r="H23">
-        <v>7.07202808094279</v>
+        <v>12.34495235067443</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.819545046358</v>
+        <v>9.974336152056711</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.48602736695227</v>
+        <v>16.77912594365121</v>
       </c>
       <c r="O23">
-        <v>11.35266389641233</v>
+        <v>17.81044318162983</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.82087475497975</v>
+        <v>9.56422782669158</v>
       </c>
       <c r="C24">
-        <v>8.479501295892696</v>
+        <v>6.955479323787466</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.28296497157076</v>
+        <v>19.70312099518062</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>17.51794628468696</v>
+        <v>21.42170498030524</v>
       </c>
       <c r="H24">
-        <v>7.168557088029632</v>
+        <v>12.4120387258864</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.86972405248585</v>
+        <v>9.525737130718566</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.75271313180157</v>
+        <v>16.85502594892536</v>
       </c>
       <c r="O24">
-        <v>11.31353833933795</v>
+        <v>17.91193838451956</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.39633826069813</v>
+        <v>8.94297051127996</v>
       </c>
       <c r="C25">
-        <v>7.970138848842903</v>
+        <v>6.75908682904968</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.55619002434532</v>
+        <v>17.85972769427484</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>16.82117274600149</v>
+        <v>21.50411958619387</v>
       </c>
       <c r="H25">
-        <v>7.298134060241079</v>
+        <v>12.49205049182497</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.77150424416389</v>
+        <v>9.010845015177578</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.04961313720474</v>
+        <v>16.9428886250038</v>
       </c>
       <c r="O25">
-        <v>11.33809673940691</v>
+        <v>18.03756244161513</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_112/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.458702551532514</v>
+        <v>13.25433685715623</v>
       </c>
       <c r="C2">
-        <v>6.6092802915852</v>
+        <v>7.574886496507725</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.53154759281661</v>
+        <v>29.61573370965833</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>21.59341235664857</v>
+        <v>16.40612108222614</v>
       </c>
       <c r="H2">
-        <v>12.55754310208166</v>
+        <v>7.412700323892242</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.606658067835472</v>
+        <v>11.9000017091329</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.01278109724849</v>
+        <v>11.27660620428817</v>
       </c>
       <c r="O2">
-        <v>18.1438398480341</v>
+        <v>11.40617548993185</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.115647334979764</v>
+        <v>12.42184224081809</v>
       </c>
       <c r="C3">
-        <v>6.504870617224146</v>
+        <v>7.295253119356287</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.59355093206447</v>
+        <v>27.49436763724115</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>21.67150609310042</v>
+        <v>16.18264174055528</v>
       </c>
       <c r="H3">
-        <v>12.60603450561432</v>
+        <v>7.501087794782345</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.318092797627614</v>
+        <v>11.27080231882228</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.06341470440659</v>
+        <v>11.43589109060057</v>
       </c>
       <c r="O3">
-        <v>18.22440881970333</v>
+        <v>11.47987449843032</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.898445033565831</v>
+        <v>11.88173487214012</v>
       </c>
       <c r="C4">
-        <v>6.43946914583015</v>
+        <v>7.118117277963982</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.99236570412395</v>
+        <v>26.12657482355447</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>21.72802924302474</v>
+        <v>16.07251815830184</v>
       </c>
       <c r="H4">
-        <v>12.63783454778404</v>
+        <v>7.560300237579286</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.134088273594539</v>
+        <v>10.86581574501946</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.09612299366481</v>
+        <v>11.53645079236616</v>
       </c>
       <c r="O4">
-        <v>18.27807516096775</v>
+        <v>11.53756018864371</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.808414423413815</v>
+        <v>11.6543575832499</v>
       </c>
       <c r="C5">
-        <v>6.412512703949927</v>
+        <v>7.044629869782924</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.74129623204272</v>
+        <v>25.55252136660006</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>21.75320349798038</v>
+        <v>16.03421075844764</v>
       </c>
       <c r="H5">
-        <v>12.65130285277915</v>
+        <v>7.585623323895298</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.057456980420845</v>
+        <v>10.69616567794501</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.1098600662367</v>
+        <v>11.57813307845925</v>
       </c>
       <c r="O5">
-        <v>18.30099725310113</v>
+        <v>11.56402729115344</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.793377335302663</v>
+        <v>11.61616236713242</v>
       </c>
       <c r="C6">
-        <v>6.408018807022661</v>
+        <v>7.032350704136345</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.69924790250193</v>
+        <v>25.45618636291088</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>21.75751249130493</v>
+        <v>16.02823884470138</v>
       </c>
       <c r="H6">
-        <v>12.65357003054764</v>
+        <v>7.589898922466351</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.044635012601892</v>
+        <v>10.66771932090616</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.11216578088592</v>
+        <v>11.58509715903688</v>
       </c>
       <c r="O6">
-        <v>18.30486694713226</v>
+        <v>11.56859612674426</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.897236813418629</v>
+        <v>11.87869784613172</v>
       </c>
       <c r="C7">
-        <v>6.439106808516519</v>
+        <v>7.117131385234682</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.98900392459326</v>
+        <v>26.11890075018032</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>21.72836010531663</v>
+        <v>16.07197527974556</v>
       </c>
       <c r="H7">
-        <v>12.63801412293196</v>
+        <v>7.560636983267252</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.133061374395504</v>
+        <v>10.86354635435845</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.09630660253028</v>
+        <v>11.53701007329199</v>
       </c>
       <c r="O7">
-        <v>18.27838003783309</v>
+        <v>11.53790536569804</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.341854027693083</v>
+        <v>12.97329907630767</v>
       </c>
       <c r="C8">
-        <v>6.573560375829725</v>
+        <v>7.479634039613043</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.2135124984723</v>
+        <v>28.8976747780317</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>21.61855079467341</v>
+        <v>16.32330537055261</v>
       </c>
       <c r="H8">
-        <v>12.57384244048867</v>
+        <v>7.442119772795769</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.508615742638394</v>
+        <v>11.68696551520747</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.02990416701719</v>
+        <v>11.33096115726008</v>
       </c>
       <c r="O8">
-        <v>18.17074741004442</v>
+        <v>11.42890395234287</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.156630448544028</v>
+        <v>14.89058358188705</v>
       </c>
       <c r="C9">
-        <v>6.826096337704097</v>
+        <v>8.144950603570237</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.50122265353804</v>
+        <v>33.84122533857901</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>21.4718802598642</v>
+        <v>17.04029636164772</v>
       </c>
       <c r="H9">
-        <v>12.46407639511772</v>
+        <v>7.251337552001081</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.188300156732025</v>
+        <v>13.15126570765167</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.91248731250109</v>
+        <v>10.94832835054415</v>
       </c>
       <c r="O9">
-        <v>17.99309801832483</v>
+        <v>11.32156612100872</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.714686021141297</v>
+        <v>16.16080308305142</v>
       </c>
       <c r="C10">
-        <v>7.003748045112257</v>
+        <v>8.603416673378362</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.14047895013242</v>
+        <v>37.18326175968512</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>21.40679416864066</v>
+        <v>17.71374383283288</v>
       </c>
       <c r="H10">
-        <v>12.39322806181529</v>
+        <v>7.140214909016694</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.650002450673695</v>
+        <v>14.1333296061443</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.83395541908365</v>
+        <v>10.67962231421075</v>
       </c>
       <c r="O10">
-        <v>17.88311470592888</v>
+        <v>11.31855202228669</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.958793733714884</v>
+        <v>16.70903782286057</v>
       </c>
       <c r="C11">
-        <v>7.082636250082874</v>
+        <v>8.80501931719181</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.84377544918225</v>
+        <v>38.64508869222543</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>21.38660309402866</v>
+        <v>18.05345487593168</v>
       </c>
       <c r="H11">
-        <v>12.3631244681813</v>
+        <v>7.096873389073824</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.851342237259935</v>
+        <v>14.55957903365591</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.799894366046</v>
+        <v>10.55993395845114</v>
       </c>
       <c r="O11">
-        <v>17.83757480582566</v>
+        <v>11.33608936845274</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.04976304100815</v>
+        <v>16.91242675162266</v>
       </c>
       <c r="C12">
-        <v>7.112215033205353</v>
+        <v>8.88033930040852</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.10403266994742</v>
+        <v>39.19063682044968</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>21.38032210572398</v>
+        <v>18.18697690934193</v>
       </c>
       <c r="H12">
-        <v>12.35203077960139</v>
+        <v>7.081581144957283</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.926298081115123</v>
+        <v>14.71804191497448</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.78723449373529</v>
+        <v>10.51496594576015</v>
       </c>
       <c r="O12">
-        <v>17.82097895446393</v>
+        <v>11.34565371513905</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.03023746027107</v>
+        <v>16.86881010260184</v>
       </c>
       <c r="C13">
-        <v>7.105858077661827</v>
+        <v>8.864163550067694</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.04825088802091</v>
+        <v>39.0734929939613</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>21.38161396461485</v>
+        <v>18.15800233072881</v>
       </c>
       <c r="H13">
-        <v>12.35440639569364</v>
+        <v>7.084823373071954</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.910212790471322</v>
+        <v>14.68404514788859</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.78995043903885</v>
+        <v>10.52463498231998</v>
       </c>
       <c r="O13">
-        <v>17.82452424777498</v>
+        <v>11.34346057739395</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.966307619575282</v>
+        <v>16.72585499154003</v>
       </c>
       <c r="C14">
-        <v>7.085075712638438</v>
+        <v>8.811236532841619</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.86530835161275</v>
+        <v>38.69012947860936</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>21.38605894066687</v>
+        <v>18.06434157945021</v>
       </c>
       <c r="H14">
-        <v>12.36220565193699</v>
+        <v>7.095592331396379</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.857534893456286</v>
+        <v>14.57267493452882</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.79884805975729</v>
+        <v>10.55622735396955</v>
       </c>
       <c r="O14">
-        <v>17.83619642767401</v>
+        <v>11.33681646950478</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.926955638303303</v>
+        <v>16.63774313718796</v>
       </c>
       <c r="C15">
-        <v>7.072307063321194</v>
+        <v>8.778683502248187</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.7524617675766</v>
+        <v>38.45427696998375</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>21.38895967049233</v>
+        <v>18.00760946618285</v>
       </c>
       <c r="H15">
-        <v>12.36702276426414</v>
+        <v>7.102337120904989</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.825099506122539</v>
+        <v>14.50407361316203</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.80432911782637</v>
+        <v>10.57562454665263</v>
       </c>
       <c r="O15">
-        <v>17.84343060349211</v>
+        <v>11.33313355588192</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.698530830907712</v>
+        <v>16.12438242446683</v>
       </c>
       <c r="C16">
-        <v>6.998552238146677</v>
+        <v>8.590099419871628</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.09366626968082</v>
+        <v>37.08658411673549</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>21.40830414610026</v>
+        <v>17.6922217908908</v>
       </c>
       <c r="H16">
-        <v>12.39523819470094</v>
+        <v>7.143199428945655</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.636666227664509</v>
+        <v>14.10506043411313</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.83621478556349</v>
+        <v>10.68749455734634</v>
       </c>
       <c r="O16">
-        <v>17.88618150807148</v>
+        <v>11.31780383002482</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.555850919541548</v>
+        <v>15.80189903191209</v>
       </c>
       <c r="C17">
-        <v>6.952799930855394</v>
+        <v>8.472609393810504</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.67867771883401</v>
+        <v>36.23284042346743</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>21.42259132289174</v>
+        <v>17.50735156720684</v>
       </c>
       <c r="H17">
-        <v>12.41309203223089</v>
+        <v>7.170170790202173</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.518814363279912</v>
+        <v>13.85502510226013</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.85620102657693</v>
+        <v>10.75676788778913</v>
       </c>
       <c r="O17">
-        <v>17.9135605822309</v>
+        <v>11.31338725803412</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.472870361806093</v>
+        <v>15.61362678072435</v>
       </c>
       <c r="C18">
-        <v>6.926304073873046</v>
+        <v>8.40437837504922</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.43599357666292</v>
+        <v>35.73625929848554</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>21.43169472439938</v>
+        <v>17.4041552559605</v>
       </c>
       <c r="H18">
-        <v>12.42356115077021</v>
+        <v>7.186357103061697</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.450212966992478</v>
+        <v>13.7092815742583</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.86785321293917</v>
+        <v>10.79685250835414</v>
       </c>
       <c r="O18">
-        <v>17.9297309260269</v>
+        <v>11.31261435044198</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.444619626274775</v>
+        <v>15.54940100771531</v>
       </c>
       <c r="C19">
-        <v>6.91730260487213</v>
+        <v>8.381165024134226</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.35313797865465</v>
+        <v>35.56716415103413</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>21.43492876692924</v>
+        <v>17.36975049283737</v>
       </c>
       <c r="H19">
-        <v>12.42714016915723</v>
+        <v>7.19195068032859</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.426846764603905</v>
+        <v>13.65960407303329</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.87182537193694</v>
+        <v>10.81046609781903</v>
       </c>
       <c r="O19">
-        <v>17.93527841624046</v>
+        <v>11.31265001062487</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.571134633908732</v>
+        <v>15.836516249802</v>
       </c>
       <c r="C20">
-        <v>6.957689135859781</v>
+        <v>8.485184265122816</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.72326705547632</v>
+        <v>36.32429251492076</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>21.42097866988018</v>
+        <v>17.52670606527594</v>
       </c>
       <c r="H20">
-        <v>12.41117075338955</v>
+        <v>7.167229395784529</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.531444647487517</v>
+        <v>13.88184155929428</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.85405725313009</v>
+        <v>10.7493688184028</v>
       </c>
       <c r="O20">
-        <v>17.91060227001558</v>
+        <v>11.31367301688524</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.98512571196248</v>
+        <v>16.76795843818211</v>
       </c>
       <c r="C21">
-        <v>7.09118812331372</v>
+        <v>8.826810374125134</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.91920737792269</v>
+        <v>38.80294679529874</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>21.38471621973124</v>
+        <v>18.09171897039931</v>
       </c>
       <c r="H21">
-        <v>12.35990651771918</v>
+        <v>7.092398122610452</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.873042876212892</v>
+        <v>14.60546704806855</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.79622815231721</v>
+        <v>10.54693835180678</v>
       </c>
       <c r="O21">
-        <v>17.83275038332618</v>
+        <v>11.33868703101032</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.2471062527657</v>
+        <v>17.35216015655753</v>
       </c>
       <c r="C22">
-        <v>7.176713598191527</v>
+        <v>9.044117329536016</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.6654817288934</v>
+        <v>40.37639037326532</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>21.36897660078095</v>
+        <v>18.48946405702484</v>
       </c>
       <c r="H22">
-        <v>12.32818544873265</v>
+        <v>7.050065121363162</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.0887804582766</v>
+        <v>15.06121819609504</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.75982213451941</v>
+        <v>10.41670453856928</v>
       </c>
       <c r="O22">
-        <v>17.78565471249262</v>
+        <v>11.37217015836481</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.10808744309288</v>
+        <v>17.04259231887328</v>
       </c>
       <c r="C23">
-        <v>7.131230300652769</v>
+        <v>8.928687830628499</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.27040415540426</v>
+        <v>39.54072798237128</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>21.37664555237615</v>
+        <v>18.27455113188267</v>
       </c>
       <c r="H23">
-        <v>12.34495235067443</v>
+        <v>7.07202808094279</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.974336152056711</v>
+        <v>14.81954504635798</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.77912594365121</v>
+        <v>10.48602736695227</v>
       </c>
       <c r="O23">
-        <v>17.81044318162983</v>
+        <v>11.35266389641234</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.56422782669158</v>
+        <v>15.82087475497984</v>
       </c>
       <c r="C24">
-        <v>6.955479323787466</v>
+        <v>8.47950129589252</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.70312099518062</v>
+        <v>36.28296497157071</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>21.42170498030524</v>
+        <v>17.51794628468696</v>
       </c>
       <c r="H24">
-        <v>12.4120387258864</v>
+        <v>7.168557088029748</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.525737130718566</v>
+        <v>13.86972405248588</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.85502594892536</v>
+        <v>10.75271313180163</v>
       </c>
       <c r="O24">
-        <v>17.91193838451956</v>
+        <v>11.313538339338</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.94297051127996</v>
+        <v>14.39633826069808</v>
       </c>
       <c r="C25">
-        <v>6.75908682904968</v>
+        <v>7.970138848843088</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.85972769427484</v>
+        <v>32.55619002434536</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>21.50411958619387</v>
+        <v>16.8211727460015</v>
       </c>
       <c r="H25">
-        <v>12.49205049182497</v>
+        <v>7.298134060241137</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.010845015177578</v>
+        <v>12.77150424416388</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.9428886250038</v>
+        <v>11.04961313720481</v>
       </c>
       <c r="O25">
-        <v>18.03756244161513</v>
+        <v>11.33809673940696</v>
       </c>
     </row>
   </sheetData>
